--- a/config_ios/fish_3d_yutu_random_4.xlsx
+++ b/config_ios/fish_3d_yutu_random_4.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="79">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,10 +260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>101,102,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>35,42,43,44,45,46,47,48,48,46,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -272,10 +268,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>26,27,64,65,66</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -315,10 +307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>群鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -347,7 +335,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,3,4,5,7,8,9,10,</t>
+    <t>1,2,3,4,5,7,8,9,10,11,26,27,64,65,66</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1060,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D2" sqref="D2:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1080,7 +1068,7 @@
         <v>36</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
         <v>37</v>
@@ -1106,19 +1094,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D2" s="11">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="E2" s="11">
         <v>250</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1126,10 +1114,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D3" s="11">
         <v>200</v>
@@ -1138,7 +1126,7 @@
         <v>300</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1146,10 +1134,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D4" s="11">
         <v>250</v>
@@ -1158,7 +1146,7 @@
         <v>350</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1166,7 +1154,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
         <v>54</v>
@@ -1186,10 +1174,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="11">
         <v>400</v>
@@ -1206,16 +1194,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>81</v>
+        <v>70</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="D7" s="11">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="E7" s="11">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>55</v>
@@ -1223,66 +1211,67 @@
       <c r="G7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D8" s="11">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E8" s="11">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>58</v>
       </c>
       <c r="D9" s="11">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="E9" s="11">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>58</v>
+        <v>74</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="D10" s="11">
-        <v>80</v>
+        <v>800</v>
       </c>
       <c r="E10" s="11">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>55</v>
+      </c>
+      <c r="H10" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1290,42 +1279,42 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D11" s="11">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="E11" s="11">
-        <v>1200</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>59</v>
+        <v>2200</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="H11" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D12" s="11">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="E12" s="11">
-        <v>2200</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>59</v>
+        <v>3200</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="H12" s="11">
         <v>1</v>
@@ -1336,19 +1325,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D13" s="11">
-        <v>2800</v>
+        <v>3800</v>
       </c>
       <c r="E13" s="11">
-        <v>3200</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>59</v>
+        <v>4200</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1356,39 +1348,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D14" s="11">
-        <v>3800</v>
+        <v>4800</v>
       </c>
       <c r="E14" s="11">
-        <v>4200</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11">
-        <v>14</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="11">
-        <v>4800</v>
-      </c>
-      <c r="E15" s="11">
         <v>5200</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>59</v>
+      <c r="F14" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1867,7 +1842,7 @@
         <v>46</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1884,7 +1859,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1901,7 +1876,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1918,7 +1893,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
